--- a/Projekt/Bewertung Projekt.xlsx
+++ b/Projekt/Bewertung Projekt.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\FHNW\WEBEC\webec-private\Projekt\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\FHNW\WEBEC\webec-2024-hs\Projekt\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AB9D6817-DF5A-4EC6-AC4D-57514AB74AB6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{28DE86A9-869D-4566-8A78-8203ECB6B484}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="417" xr2:uid="{C68B9987-C008-5A40-BA96-C8E981A2E60E}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" tabRatio="417" xr2:uid="{C68B9987-C008-5A40-BA96-C8E981A2E60E}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -593,29 +593,29 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{192328FF-97F8-9C45-A60C-98AFD89B45AA}">
   <dimension ref="A1:E50"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.69921875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.75" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="13.59765625" style="5" customWidth="1"/>
-    <col min="2" max="2" width="9.09765625" style="9" customWidth="1"/>
-    <col min="3" max="3" width="69.09765625" style="8" customWidth="1"/>
-    <col min="4" max="4" width="9.19921875" style="9" customWidth="1"/>
-    <col min="5" max="5" width="73.69921875" style="8" customWidth="1"/>
-    <col min="6" max="16384" width="10.69921875" style="5"/>
+    <col min="1" max="1" width="13.625" style="5" customWidth="1"/>
+    <col min="2" max="2" width="9.125" style="9" customWidth="1"/>
+    <col min="3" max="3" width="69.125" style="8" customWidth="1"/>
+    <col min="4" max="4" width="9.25" style="9" customWidth="1"/>
+    <col min="5" max="5" width="73.75" style="8" customWidth="1"/>
+    <col min="6" max="16384" width="10.75" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="21" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" ht="21" x14ac:dyDescent="0.25">
       <c r="A1" s="12" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="11" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>35</v>
       </c>
@@ -632,7 +632,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="6" t="s">
         <v>23</v>
       </c>
@@ -646,7 +646,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B8" s="9">
         <v>3</v>
       </c>
@@ -654,7 +654,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B9" s="9">
         <v>3</v>
       </c>
@@ -662,7 +662,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="11" spans="1:5" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B11" s="9">
         <v>3</v>
       </c>
@@ -670,7 +670,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="12" spans="1:5" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B12" s="9">
         <v>2</v>
       </c>
@@ -678,7 +678,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="13" spans="1:5" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B13" s="9">
         <v>3</v>
       </c>
@@ -686,7 +686,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="14" spans="1:5" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B14" s="9">
         <v>2</v>
       </c>
@@ -694,7 +694,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B16" s="9">
         <v>3</v>
       </c>
@@ -702,7 +702,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="17" spans="1:4" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B17" s="9">
         <v>3</v>
       </c>
@@ -710,7 +710,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B19" s="9">
         <v>3</v>
       </c>
@@ -718,7 +718,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B20" s="9">
         <v>3</v>
       </c>
@@ -726,7 +726,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="21" spans="1:4" ht="46.8" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B21" s="9">
         <v>2</v>
       </c>
@@ -734,7 +734,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" s="6" t="s">
         <v>0</v>
       </c>
@@ -748,7 +748,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B25" s="9">
         <v>3</v>
       </c>
@@ -756,7 +756,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B26" s="9">
         <v>3</v>
       </c>
@@ -764,7 +764,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="27" spans="1:4" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B27" s="9">
         <v>3</v>
       </c>
@@ -772,7 +772,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B29" s="9">
         <v>2</v>
       </c>
@@ -780,7 +780,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B30" s="9">
         <v>1</v>
       </c>
@@ -788,7 +788,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B31" s="9">
         <v>2</v>
       </c>
@@ -796,7 +796,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B32" s="9">
         <v>2</v>
       </c>
@@ -804,7 +804,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B33" s="9">
         <v>2</v>
       </c>
@@ -812,7 +812,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="34" spans="1:4" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B34" s="9">
         <v>2</v>
       </c>
@@ -820,7 +820,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="36" spans="1:4" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A36" s="13" t="s">
         <v>33</v>
       </c>
@@ -833,7 +833,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:4" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A38" s="8" t="s">
         <v>32</v>
       </c>
@@ -844,7 +844,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B39" s="9">
         <v>5</v>
       </c>
@@ -852,7 +852,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B40" s="9">
         <v>5</v>
       </c>
@@ -860,7 +860,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="41" spans="1:4" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:4" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B41" s="9">
         <v>5</v>
       </c>
@@ -868,7 +868,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B42" s="9">
         <v>5</v>
       </c>
@@ -876,7 +876,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B43" s="9">
         <v>5</v>
       </c>
@@ -884,7 +884,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B44" s="9">
         <v>5</v>
       </c>
@@ -892,7 +892,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A46" s="10" t="s">
         <v>1</v>
       </c>
@@ -906,13 +906,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A47" s="2"/>
       <c r="B47" s="3"/>
       <c r="C47" s="4"/>
       <c r="D47" s="3"/>
     </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A48" s="10" t="s">
         <v>22</v>
       </c>
@@ -923,7 +923,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="50" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A50" s="2"/>
     </row>
   </sheetData>
